--- a/01_Guide/06_Spark1/BigDataガイド課程概要_06.xlsx
+++ b/01_Guide/06_Spark1/BigDataガイド課程概要_06.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\github\Big-Data\01_Guide\06_Spark1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\github\Big-Data2\01_Guide\06_Spark1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -126,42 +126,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>topic1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topic6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topic7</t>
+  </si>
+  <si>
+    <t>复习前面课程内容，第六课内容：Spark入门</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>复习第一部分：Zookeeper &amp; Hbase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>topic2</t>
-  </si>
-  <si>
-    <t>topic1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基础知识准备</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>topic3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>topic4</t>
-  </si>
-  <si>
-    <t>topic5</t>
-  </si>
-  <si>
-    <t>topic6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>topic7</t>
-  </si>
-  <si>
-    <t>topic8</t>
-  </si>
-  <si>
-    <t>复习第一部分：Hadoop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>复习第二部分：HBase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>复习前面课程内容，第六课内容：Spark入门</t>
+  </si>
+  <si>
+    <t>环境说明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spark框架</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spark RDD 介绍</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,7 +271,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,13 +607,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -619,181 +621,160 @@
       <c r="A2" s="2">
         <v>0.375</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.40625</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>0.4375</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>0.46875</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>0.46875</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
         <v>0.625</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
